--- a/AD010_内部定義/BB015_名称一覧/BB015010_名称区分.xlsx
+++ b/AD010_内部定義/BB015_名称一覧/BB015010_名称区分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BB015_名称一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0BAFAC-0374-4F69-8644-EBBE724E84C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B0810-5D6F-4681-B177-83F1F2B11A73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6050" yWindow="4080" windowWidth="12140" windowHeight="10880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="5340" windowWidth="15490" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名称区分一覧" sheetId="1" r:id="rId1"/>
